--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N2">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O2">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P2">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q2">
-        <v>30.69099347266889</v>
+        <v>55.24727948710834</v>
       </c>
       <c r="R2">
-        <v>276.21894125402</v>
+        <v>497.2255153839751</v>
       </c>
       <c r="S2">
-        <v>0.001243068321800538</v>
+        <v>0.0007762039639991549</v>
       </c>
       <c r="T2">
-        <v>0.001243068321800538</v>
+        <v>0.0007762039639991547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.107305</v>
       </c>
       <c r="N3">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O3">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P3">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q3">
-        <v>41.75692572234001</v>
+        <v>69.413569535325</v>
       </c>
       <c r="R3">
-        <v>375.81233150106</v>
+        <v>624.722125817925</v>
       </c>
       <c r="S3">
-        <v>0.001691268535423695</v>
+        <v>0.0009752351306496935</v>
       </c>
       <c r="T3">
-        <v>0.001691268535423695</v>
+        <v>0.0009752351306496935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N4">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O4">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P4">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q4">
-        <v>49.56315835139245</v>
+        <v>188.6634032472106</v>
       </c>
       <c r="R4">
-        <v>446.068425162532</v>
+        <v>1697.970629224895</v>
       </c>
       <c r="S4">
-        <v>0.002007442089806097</v>
+        <v>0.002650651449656035</v>
       </c>
       <c r="T4">
-        <v>0.002007442089806097</v>
+        <v>0.002650651449656035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N5">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O5">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P5">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q5">
-        <v>44.46220586226622</v>
+        <v>22.45922598727889</v>
       </c>
       <c r="R5">
-        <v>400.159852760396</v>
+        <v>202.13303388551</v>
       </c>
       <c r="S5">
-        <v>0.001800839704781022</v>
+        <v>0.0003155438675264832</v>
       </c>
       <c r="T5">
-        <v>0.001800839704781022</v>
+        <v>0.0003155438675264832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N6">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O6">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P6">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q6">
-        <v>414.3858994307715</v>
+        <v>1331.618187551528</v>
       </c>
       <c r="R6">
-        <v>3729.473094876944</v>
+        <v>11984.56368796376</v>
       </c>
       <c r="S6">
-        <v>0.01678375074570115</v>
+        <v>0.01870874593837789</v>
       </c>
       <c r="T6">
-        <v>0.01678375074570115</v>
+        <v>0.01870874593837789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N7">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O7">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P7">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q7">
-        <v>23.76745414773112</v>
+        <v>163.1315918352311</v>
       </c>
       <c r="R7">
-        <v>213.90708732958</v>
+        <v>1468.18432651708</v>
       </c>
       <c r="S7">
-        <v>0.0009626462358477102</v>
+        <v>0.00229193888661152</v>
       </c>
       <c r="T7">
-        <v>0.0009626462358477102</v>
+        <v>0.00229193888661152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N8">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O8">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P8">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q8">
-        <v>821.3553423663672</v>
+        <v>889.4369663033284</v>
       </c>
       <c r="R8">
-        <v>7392.198081297305</v>
+        <v>8004.932696729956</v>
       </c>
       <c r="S8">
-        <v>0.0332671149256375</v>
+        <v>0.01249626235683014</v>
       </c>
       <c r="T8">
-        <v>0.0332671149256375</v>
+        <v>0.01249626235683014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.107305</v>
       </c>
       <c r="N9">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O9">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P9">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q9">
         <v>1117.502893915185</v>
       </c>
       <c r="R9">
-        <v>10057.52604523667</v>
+        <v>10057.52604523666</v>
       </c>
       <c r="S9">
-        <v>0.04526189248919073</v>
+        <v>0.01570050478666373</v>
       </c>
       <c r="T9">
-        <v>0.04526189248919073</v>
+        <v>0.01570050478666373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N10">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O10">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P10">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q10">
-        <v>1326.414048235968</v>
+        <v>3037.329739934375</v>
       </c>
       <c r="R10">
-        <v>11937.72643412371</v>
+        <v>27335.96765940937</v>
       </c>
       <c r="S10">
-        <v>0.0537233598000554</v>
+        <v>0.04267336610954235</v>
       </c>
       <c r="T10">
-        <v>0.0537233598000554</v>
+        <v>0.04267336610954236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N11">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O11">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P11">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q11">
-        <v>1189.901863257926</v>
+        <v>361.5755565359109</v>
       </c>
       <c r="R11">
-        <v>10709.11676932134</v>
+        <v>3254.180008823198</v>
       </c>
       <c r="S11">
-        <v>0.04819424674488188</v>
+        <v>0.005080003628664904</v>
       </c>
       <c r="T11">
-        <v>0.04819424674488188</v>
+        <v>0.005080003628664905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N12">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O12">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P12">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q12">
-        <v>11089.83560932473</v>
+        <v>21437.98666659304</v>
       </c>
       <c r="R12">
-        <v>99808.52048392259</v>
+        <v>192941.8799993374</v>
       </c>
       <c r="S12">
-        <v>0.4491683643999146</v>
+        <v>0.3011958305504158</v>
       </c>
       <c r="T12">
-        <v>0.4491683643999146</v>
+        <v>0.3011958305504158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N13">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O13">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P13">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q13">
-        <v>636.0669118147327</v>
+        <v>2626.288018109887</v>
       </c>
       <c r="R13">
-        <v>5724.602206332595</v>
+        <v>23636.59216298898</v>
       </c>
       <c r="S13">
-        <v>0.02576243187847622</v>
+        <v>0.03689838104582253</v>
       </c>
       <c r="T13">
-        <v>0.02576243187847622</v>
+        <v>0.03689838104582253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N14">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O14">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P14">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q14">
-        <v>176.8094170525745</v>
+        <v>708.0964079381384</v>
       </c>
       <c r="R14">
-        <v>1591.28475347317</v>
+        <v>6372.867671443246</v>
       </c>
       <c r="S14">
-        <v>0.007161260046202165</v>
+        <v>0.009948494185372482</v>
       </c>
       <c r="T14">
-        <v>0.007161260046202165</v>
+        <v>0.00994849418537248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.107305</v>
       </c>
       <c r="N15">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O15">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P15">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q15">
-        <v>240.55974927789</v>
+        <v>889.6637030172149</v>
       </c>
       <c r="R15">
-        <v>2165.03774350101</v>
+        <v>8006.973327154934</v>
       </c>
       <c r="S15">
-        <v>0.009743321085188094</v>
+        <v>0.01249944792429585</v>
       </c>
       <c r="T15">
-        <v>0.009743321085188094</v>
+        <v>0.01249944792429585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N16">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O16">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P16">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q16">
-        <v>285.5311002948802</v>
+        <v>2418.071611651163</v>
       </c>
       <c r="R16">
-        <v>2569.779902653922</v>
+        <v>21762.64450486047</v>
       </c>
       <c r="S16">
-        <v>0.0115647825470849</v>
+        <v>0.03397301709010715</v>
       </c>
       <c r="T16">
-        <v>0.0115647825470849</v>
+        <v>0.03397301709010715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N17">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O17">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P17">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q17">
-        <v>256.1447450822851</v>
+        <v>287.8566581794136</v>
       </c>
       <c r="R17">
-        <v>2305.302705740566</v>
+        <v>2590.709923614722</v>
       </c>
       <c r="S17">
-        <v>0.01037455560671279</v>
+        <v>0.004044280211020129</v>
       </c>
       <c r="T17">
-        <v>0.01037455560671279</v>
+        <v>0.004044280211020128</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N18">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O18">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P18">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q18">
-        <v>2387.258313368314</v>
+        <v>17067.15813165706</v>
       </c>
       <c r="R18">
-        <v>21485.32482031483</v>
+        <v>153604.4231849136</v>
       </c>
       <c r="S18">
-        <v>0.0966904244382245</v>
+        <v>0.2397872966592659</v>
       </c>
       <c r="T18">
-        <v>0.0966904244382245</v>
+        <v>0.2397872966592658</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N19">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O19">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P19">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q19">
-        <v>136.9232220008256</v>
+        <v>2090.834069516708</v>
       </c>
       <c r="R19">
-        <v>1232.30899800743</v>
+        <v>18817.50662565037</v>
       </c>
       <c r="S19">
-        <v>0.005545761167348999</v>
+        <v>0.02937544993870787</v>
       </c>
       <c r="T19">
-        <v>0.005545761167348999</v>
+        <v>0.02937544993870787</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N20">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O20">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P20">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q20">
-        <v>87.24790787261</v>
+        <v>27.68991540504</v>
       </c>
       <c r="R20">
-        <v>785.2311708534901</v>
+        <v>249.20923864536</v>
       </c>
       <c r="S20">
-        <v>0.003533776464955274</v>
+        <v>0.0003890331306758479</v>
       </c>
       <c r="T20">
-        <v>0.003533776464955275</v>
+        <v>0.0003890331306758479</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.107305</v>
       </c>
       <c r="N21">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O21">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P21">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q21">
-        <v>118.70597840733</v>
+        <v>34.79005457352</v>
       </c>
       <c r="R21">
-        <v>1068.35380566597</v>
+        <v>313.11049116168</v>
       </c>
       <c r="S21">
-        <v>0.004807913484387406</v>
+        <v>0.0004887874754812936</v>
       </c>
       <c r="T21">
-        <v>0.004807913484387407</v>
+        <v>0.0004887874754812937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N22">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O22">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P22">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q22">
-        <v>140.897422482226</v>
+        <v>94.558025742448</v>
       </c>
       <c r="R22">
-        <v>1268.076802340034</v>
+        <v>851.022231682032</v>
       </c>
       <c r="S22">
-        <v>0.005706727045736503</v>
+        <v>0.001328505495485056</v>
       </c>
       <c r="T22">
-        <v>0.005706727045736504</v>
+        <v>0.001328505495485057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N23">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O23">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P23">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q23">
-        <v>126.396509267078</v>
+        <v>11.256555497824</v>
       </c>
       <c r="R23">
-        <v>1137.568583403702</v>
+        <v>101.308999480416</v>
       </c>
       <c r="S23">
-        <v>0.005119400803887032</v>
+        <v>0.0001581504660410707</v>
       </c>
       <c r="T23">
-        <v>0.005119400803887033</v>
+        <v>0.0001581504660410707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N24">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O24">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P24">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q24">
-        <v>1178.010181046792</v>
+        <v>667.4065276593119</v>
       </c>
       <c r="R24">
-        <v>10602.09162942113</v>
+        <v>6006.658748933808</v>
       </c>
       <c r="S24">
-        <v>0.04771260142236261</v>
+        <v>0.009376816327923481</v>
       </c>
       <c r="T24">
-        <v>0.04771260142236262</v>
+        <v>0.009376816327923481</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N25">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O25">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P25">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q25">
-        <v>67.56577142719</v>
+        <v>81.76149160179199</v>
       </c>
       <c r="R25">
-        <v>608.09194284471</v>
+        <v>735.853424416128</v>
       </c>
       <c r="S25">
-        <v>0.002736596655756681</v>
+        <v>0.001148718895716909</v>
       </c>
       <c r="T25">
-        <v>0.002736596655756682</v>
+        <v>0.001148718895716909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N26">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O26">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P26">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q26">
-        <v>71.5888879353539</v>
+        <v>74.83980509629167</v>
       </c>
       <c r="R26">
-        <v>644.2999914181851</v>
+        <v>673.558245866625</v>
       </c>
       <c r="S26">
-        <v>0.002899543765652777</v>
+        <v>0.001051471745214549</v>
       </c>
       <c r="T26">
-        <v>0.002899543765652777</v>
+        <v>0.001051471745214549</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.107305</v>
       </c>
       <c r="N27">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O27">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P27">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q27">
-        <v>97.400948546145</v>
+        <v>94.02993347887498</v>
       </c>
       <c r="R27">
-        <v>876.6085369153051</v>
+        <v>846.2694013098749</v>
       </c>
       <c r="S27">
-        <v>0.003945002098379719</v>
+        <v>0.001321085993345801</v>
       </c>
       <c r="T27">
-        <v>0.003945002098379719</v>
+        <v>0.001321085993345801</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N28">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O28">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P28">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q28">
-        <v>115.6095319006134</v>
+        <v>255.5697304718694</v>
       </c>
       <c r="R28">
-        <v>1040.485787105521</v>
+        <v>2300.127574246825</v>
       </c>
       <c r="S28">
-        <v>0.004682499018215856</v>
+        <v>0.003590660747679897</v>
       </c>
       <c r="T28">
-        <v>0.004682499018215856</v>
+        <v>0.003590660747679897</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N29">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O29">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P29">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q29">
-        <v>103.7112036033292</v>
+        <v>30.42401564576111</v>
       </c>
       <c r="R29">
-        <v>933.400832429963</v>
+        <v>273.81614081185</v>
       </c>
       <c r="S29">
-        <v>0.00420058451121535</v>
+        <v>0.0004274462338099847</v>
       </c>
       <c r="T29">
-        <v>0.00420058451121535</v>
+        <v>0.0004274462338099847</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N30">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O30">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P30">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q30">
-        <v>966.5840808561035</v>
+        <v>1803.854353448992</v>
       </c>
       <c r="R30">
-        <v>8699.256727704931</v>
+        <v>16234.68918104092</v>
       </c>
       <c r="S30">
-        <v>0.03914927199534629</v>
+        <v>0.02534349044193134</v>
       </c>
       <c r="T30">
-        <v>0.03914927199534629</v>
+        <v>0.02534349044193134</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N31">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O31">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P31">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q31">
-        <v>55.43924842334611</v>
+        <v>220.9834882610888</v>
       </c>
       <c r="R31">
-        <v>498.953235810115</v>
+        <v>1988.8513943498</v>
       </c>
       <c r="S31">
-        <v>0.002245439645375518</v>
+        <v>0.003104736760959299</v>
       </c>
       <c r="T31">
-        <v>0.002245439645375518</v>
+        <v>0.003104736760959299</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.548851666666667</v>
+        <v>1.677235</v>
       </c>
       <c r="N32">
-        <v>4.646555</v>
+        <v>5.031705000000001</v>
       </c>
       <c r="O32">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="P32">
-        <v>0.05076024044458388</v>
+        <v>0.03018097554710604</v>
       </c>
       <c r="Q32">
-        <v>65.56294887379555</v>
+        <v>392.85797916743</v>
       </c>
       <c r="R32">
-        <v>590.0665398641601</v>
+        <v>3535.72181250687</v>
       </c>
       <c r="S32">
-        <v>0.002655476920335624</v>
+        <v>0.005519510165013866</v>
       </c>
       <c r="T32">
-        <v>0.002655476920335624</v>
+        <v>0.005519510165013866</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>2.107305</v>
       </c>
       <c r="N33">
-        <v>6.321915000000001</v>
+        <v>6.321915</v>
       </c>
       <c r="O33">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="P33">
-        <v>0.06906233230215106</v>
+        <v>0.03791986255670451</v>
       </c>
       <c r="Q33">
-        <v>89.20229932271999</v>
+        <v>493.5930765750899</v>
       </c>
       <c r="R33">
-        <v>802.8206939044801</v>
+        <v>4442.337689175809</v>
       </c>
       <c r="S33">
-        <v>0.003612934609581418</v>
+        <v>0.00693480124626814</v>
       </c>
       <c r="T33">
-        <v>0.003612934609581418</v>
+        <v>0.006934801246268141</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.501254333333333</v>
+        <v>5.727573666666667</v>
       </c>
       <c r="N34">
-        <v>7.503762999999999</v>
+        <v>17.182721</v>
       </c>
       <c r="O34">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="P34">
-        <v>0.08197316379966922</v>
+        <v>0.1030647230578393</v>
       </c>
       <c r="Q34">
-        <v>105.8781893101618</v>
+        <v>1341.566933804299</v>
       </c>
       <c r="R34">
-        <v>952.9037037914559</v>
+        <v>12074.10240423869</v>
       </c>
       <c r="S34">
-        <v>0.004288353298770465</v>
+        <v>0.01884852216536884</v>
       </c>
       <c r="T34">
-        <v>0.004288353298770465</v>
+        <v>0.01884852216536884</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.243829666666667</v>
+        <v>0.6818326666666668</v>
       </c>
       <c r="N35">
-        <v>6.731489</v>
+        <v>2.045498</v>
       </c>
       <c r="O35">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="P35">
-        <v>0.07353663094272454</v>
+        <v>0.01226922586273526</v>
       </c>
       <c r="Q35">
-        <v>94.98139355964088</v>
+        <v>159.7053505066413</v>
       </c>
       <c r="R35">
-        <v>854.8325420367679</v>
+        <v>1437.348154559772</v>
       </c>
       <c r="S35">
-        <v>0.003847003571246466</v>
+        <v>0.002243801455672686</v>
       </c>
       <c r="T35">
-        <v>0.003847003571246466</v>
+        <v>0.002243801455672686</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>20.91239866666666</v>
+        <v>40.426183</v>
       </c>
       <c r="N36">
-        <v>62.737196</v>
+        <v>121.278549</v>
       </c>
       <c r="O36">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="P36">
-        <v>0.6853583254215189</v>
+        <v>0.727448235092777</v>
       </c>
       <c r="Q36">
-        <v>885.22261628955</v>
+        <v>9469.006167193453</v>
       </c>
       <c r="R36">
-        <v>7967.003546605952</v>
+        <v>85221.05550474107</v>
       </c>
       <c r="S36">
-        <v>0.03585391241996971</v>
+        <v>0.1330360551748626</v>
       </c>
       <c r="T36">
-        <v>0.03585391241996971</v>
+        <v>0.1330360551748626</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.199448333333333</v>
+        <v>4.952461333333333</v>
       </c>
       <c r="N37">
-        <v>3.598345</v>
+        <v>14.857384</v>
       </c>
       <c r="O37">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283782</v>
       </c>
       <c r="P37">
-        <v>0.03930930708935247</v>
+        <v>0.08911697788283783</v>
       </c>
       <c r="Q37">
-        <v>50.77269272940445</v>
+        <v>1160.01273006953</v>
       </c>
       <c r="R37">
-        <v>456.95423456464</v>
+        <v>10440.11457062577</v>
       </c>
       <c r="S37">
-        <v>0.002056431506547343</v>
+        <v>0.01629775235501969</v>
       </c>
       <c r="T37">
-        <v>0.002056431506547343</v>
+        <v>0.0162977523550197</v>
       </c>
     </row>
   </sheetData>
